--- a/Project_BDSHOP.xlsx
+++ b/Project_BDSHOP.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQA_IT Training BD\Manual testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Manual-Testing-BDSHOP-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="656" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="656" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="4" r:id="rId1"/>
@@ -3683,7 +3683,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3897,9 +3896,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3971,7 +3968,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -5049,8 +5045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5251,8 +5247,8 @@
         <v>235</v>
       </c>
       <c r="D16" s="38">
-        <f xml:space="preserve"> Shopping_cart!B7</f>
-        <v>0</v>
+        <f xml:space="preserve"> Change_Password!B6</f>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="14.4" customHeight="1"/>
@@ -6169,7 +6165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -11002,8 +10998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="F15" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
